--- a/circular_walks.xlsx
+++ b/circular_walks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanshul Kumar\Desktop\5004_OS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB1B3D-0095-48CE-94DF-14BF18849507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80628A8C-779B-4857-96E3-C025122B43FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Area</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Book</t>
   </si>
   <si>
-    <t>Walk Name</t>
-  </si>
-  <si>
     <t>Distance</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Page</t>
-  </si>
-  <si>
-    <t>PeakDistrict</t>
   </si>
   <si>
     <t>More Peak District</t>
@@ -120,9 +114,6 @@
     <t>Lord’s Seat</t>
   </si>
   <si>
-    <t>NorthWales</t>
-  </si>
-  <si>
     <t>Snowdonia</t>
   </si>
   <si>
@@ -159,6 +150,12 @@
   <si>
     <t>Delamere
 Forest</t>
+  </si>
+  <si>
+    <t>WalkName</t>
+  </si>
+  <si>
+    <t>North Wales</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{0174D86F-7A34-41D2-8BBE-A071E20B3782}" uniqueName="1" name="Area" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{34B36B5E-C97D-4415-ABD1-3DC7D8BCA226}" uniqueName="2" name="Book" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CBCBF552-48C8-477F-BAD0-1113BACD3CA5}" uniqueName="3" name="Walk Name" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CBCBF552-48C8-477F-BAD0-1113BACD3CA5}" uniqueName="3" name="WalkName" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{D3E49854-584E-4E66-8657-434B741DD964}" uniqueName="4" name="Distance" queryTableFieldId="4" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{DDDF507D-96C8-4B41-B1E8-341425AC828D}" uniqueName="5" name="Difficult" queryTableFieldId="5" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{CFFE9F58-8CB0-4455-92D5-780F3170A4B2}" uniqueName="6" name="Page" queryTableFieldId="6"/>
@@ -525,7 +522,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,33 +543,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>67</v>
@@ -580,19 +577,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>4.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -600,19 +597,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>3.5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -620,19 +617,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>28</v>
@@ -640,19 +637,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>64</v>
@@ -660,19 +657,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>42</v>
@@ -680,19 +677,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>4.5</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -700,19 +697,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9">
         <v>5.5</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>28</v>
@@ -720,19 +717,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>24</v>
@@ -740,19 +737,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>3.5</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>42</v>
@@ -760,19 +757,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>28</v>
@@ -780,19 +777,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>8.5</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>78</v>
@@ -800,19 +797,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -820,19 +817,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>8.5</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>80</v>
@@ -840,19 +837,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>48</v>
@@ -860,19 +857,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>5.5</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>30</v>
